--- a/1. Parts & Assembly/Parts_List.xlsx
+++ b/1. Parts & Assembly/Parts_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/jwijnmaalen_tudelft_nl/Documents/Thesis/New_Test_Setup/1. Parts &amp; Assembly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="11_F25DC773A252ABDACC10480F695C6FC05ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72E189CD-BEB1-4FBA-9DAF-EA6A71D36820}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="11_F25DC773A252ABDACC10480F695C6FC05ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51BCF827-B4B1-4C97-A764-0F4938570132}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structural_Components" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>Component</t>
   </si>
@@ -165,17 +165,46 @@
     <t>Breadboard 1/2 size</t>
   </si>
   <si>
-    <t>Nextion display 2.4 inch</t>
-  </si>
-  <si>
     <t>NdFeB Magnets 3x3 mm</t>
+  </si>
+  <si>
+    <t>DRV8825 stepper driver</t>
+  </si>
+  <si>
+    <t>Dupont wires 20 mm</t>
+  </si>
+  <si>
+    <t>Nextion display 2.4 inch (NX3224T024)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Capacitor 100 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>F</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +217,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,8 +299,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3AEDD7E6-48FC-4E23-B87D-56848BC0E462}" name="Table134" displayName="Table134" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10" xr:uid="{6DB6674C-ADE3-4533-99CD-D97F2AA83C7F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3AEDD7E6-48FC-4E23-B87D-56848BC0E462}" name="Table134" displayName="Table134" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11" xr:uid="{6DB6674C-ADE3-4533-99CD-D97F2AA83C7F}"/>
   <tableColumns count="3">
     <tableColumn id="3" xr3:uid="{263ED5D2-1C82-4F86-8F20-89A6695D6C04}" name="Component"/>
     <tableColumn id="2" xr3:uid="{E0586F1C-39E5-4268-9144-62109DFA9755}" name="Quantity"/>
@@ -546,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -900,10 +941,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E49BA43-4A24-4E76-BCF6-81123E6D01FA}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,7 +975,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -942,46 +983,45 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -989,12 +1029,30 @@
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1002,6 +1060,9 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1040,7 +1101,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>20</v>
